--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Efnb3-Ephb3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Efnb3-Ephb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -85,10 +94,10 @@
     <t>Ephb3</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.553248197479317</v>
+        <v>0.06315533333333333</v>
       </c>
       <c r="H2">
-        <v>0.553248197479317</v>
+        <v>0.189466</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.08692959137136654</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.08692959137136655</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>8.12540955392633</v>
+        <v>0.1882753333333333</v>
       </c>
       <c r="N2">
-        <v>8.12540955392633</v>
+        <v>0.5648259999999999</v>
       </c>
       <c r="O2">
-        <v>0.7339540357541608</v>
+        <v>0.01590150887618359</v>
       </c>
       <c r="P2">
-        <v>0.7339540357541608</v>
+        <v>0.01590150887618359</v>
       </c>
       <c r="Q2">
-        <v>4.495368189490963</v>
+        <v>0.01189059143511111</v>
       </c>
       <c r="R2">
-        <v>4.495368189490963</v>
+        <v>0.107015322916</v>
       </c>
       <c r="S2">
-        <v>0.7339540357541608</v>
+        <v>0.001382311668794798</v>
       </c>
       <c r="T2">
-        <v>0.7339540357541608</v>
+        <v>0.001382311668794798</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.553248197479317</v>
+        <v>0.06315533333333333</v>
       </c>
       <c r="H3">
-        <v>0.553248197479317</v>
+        <v>0.189466</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.08692959137136654</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.08692959137136655</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.100010945360181</v>
+        <v>8.179402000000001</v>
       </c>
       <c r="N3">
-        <v>0.100010945360181</v>
+        <v>24.538206</v>
       </c>
       <c r="O3">
-        <v>0.009033813800957758</v>
+        <v>0.6908224842953787</v>
       </c>
       <c r="P3">
-        <v>0.009033813800957758</v>
+        <v>0.6908224842953786</v>
       </c>
       <c r="Q3">
-        <v>0.0553308752487226</v>
+        <v>0.5165728597773334</v>
       </c>
       <c r="R3">
-        <v>0.0553308752487226</v>
+        <v>4.649155737996001</v>
       </c>
       <c r="S3">
-        <v>0.009033813800957758</v>
+        <v>0.06005291626994955</v>
       </c>
       <c r="T3">
-        <v>0.009033813800957758</v>
+        <v>0.06005291626994955</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -655,49 +664,1103 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.553248197479317</v>
+        <v>0.06315533333333333</v>
       </c>
       <c r="H4">
-        <v>0.553248197479317</v>
+        <v>0.189466</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.08692959137136654</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.08692959137136655</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.84531303183607</v>
+        <v>0.002236</v>
       </c>
       <c r="N4">
-        <v>2.84531303183607</v>
+        <v>0.006708</v>
       </c>
       <c r="O4">
-        <v>0.2570121504448814</v>
+        <v>0.0001888498786200344</v>
       </c>
       <c r="P4">
-        <v>0.2570121504448814</v>
+        <v>0.0001888498786200344</v>
       </c>
       <c r="Q4">
-        <v>1.574164306127716</v>
+        <v>0.0001412153253333333</v>
       </c>
       <c r="R4">
-        <v>1.574164306127716</v>
+        <v>0.001270937928</v>
       </c>
       <c r="S4">
-        <v>0.2570121504448814</v>
+        <v>1.641664277897176E-05</v>
       </c>
       <c r="T4">
-        <v>0.2570121504448814</v>
+        <v>1.641664277897176E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.06315533333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.189466</v>
+      </c>
+      <c r="I5">
+        <v>0.08692959137136654</v>
+      </c>
+      <c r="J5">
+        <v>0.08692959137136655</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.1179923333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.353977</v>
+      </c>
+      <c r="O5">
+        <v>0.009965490978575419</v>
+      </c>
+      <c r="P5">
+        <v>0.009965490978575417</v>
+      </c>
+      <c r="Q5">
+        <v>0.007451845142444443</v>
+      </c>
+      <c r="R5">
+        <v>0.06706660628199999</v>
+      </c>
+      <c r="S5">
+        <v>0.0008662960585826008</v>
+      </c>
+      <c r="T5">
+        <v>0.0008662960585826008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.06315533333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.189466</v>
+      </c>
+      <c r="I6">
+        <v>0.08692959137136654</v>
+      </c>
+      <c r="J6">
+        <v>0.08692959137136655</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>3.352186666666667</v>
+      </c>
+      <c r="N6">
+        <v>10.05656</v>
+      </c>
+      <c r="O6">
+        <v>0.2831216659712423</v>
+      </c>
+      <c r="P6">
+        <v>0.2831216659712423</v>
+      </c>
+      <c r="Q6">
+        <v>0.2117084663288889</v>
+      </c>
+      <c r="R6">
+        <v>1.90537619696</v>
+      </c>
+      <c r="S6">
+        <v>0.02461165073126062</v>
+      </c>
+      <c r="T6">
+        <v>0.02461165073126062</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.028136</v>
+      </c>
+      <c r="H7">
+        <v>0.084408</v>
+      </c>
+      <c r="I7">
+        <v>0.03872754451180849</v>
+      </c>
+      <c r="J7">
+        <v>0.03872754451180849</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.1882753333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.5648259999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.01590150887618359</v>
+      </c>
+      <c r="P7">
+        <v>0.01590150887618359</v>
+      </c>
+      <c r="Q7">
+        <v>0.005297314778666666</v>
+      </c>
+      <c r="R7">
+        <v>0.04767583300799999</v>
+      </c>
+      <c r="S7">
+        <v>0.0006158263928073178</v>
+      </c>
+      <c r="T7">
+        <v>0.0006158263928073177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.028136</v>
+      </c>
+      <c r="H8">
+        <v>0.084408</v>
+      </c>
+      <c r="I8">
+        <v>0.03872754451180849</v>
+      </c>
+      <c r="J8">
+        <v>0.03872754451180849</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>8.179402000000001</v>
+      </c>
+      <c r="N8">
+        <v>24.538206</v>
+      </c>
+      <c r="O8">
+        <v>0.6908224842953787</v>
+      </c>
+      <c r="P8">
+        <v>0.6908224842953786</v>
+      </c>
+      <c r="Q8">
+        <v>0.230135654672</v>
+      </c>
+      <c r="R8">
+        <v>2.071220892048</v>
+      </c>
+      <c r="S8">
+        <v>0.0267538585103074</v>
+      </c>
+      <c r="T8">
+        <v>0.0267538585103074</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.028136</v>
+      </c>
+      <c r="H9">
+        <v>0.084408</v>
+      </c>
+      <c r="I9">
+        <v>0.03872754451180849</v>
+      </c>
+      <c r="J9">
+        <v>0.03872754451180849</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.002236</v>
+      </c>
+      <c r="N9">
+        <v>0.006708</v>
+      </c>
+      <c r="O9">
+        <v>0.0001888498786200344</v>
+      </c>
+      <c r="P9">
+        <v>0.0001888498786200344</v>
+      </c>
+      <c r="Q9">
+        <v>6.291209599999999E-05</v>
+      </c>
+      <c r="R9">
+        <v>0.000566208864</v>
+      </c>
+      <c r="S9">
+        <v>7.313692080307013E-06</v>
+      </c>
+      <c r="T9">
+        <v>7.313692080307011E-06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.028136</v>
+      </c>
+      <c r="H10">
+        <v>0.084408</v>
+      </c>
+      <c r="I10">
+        <v>0.03872754451180849</v>
+      </c>
+      <c r="J10">
+        <v>0.03872754451180849</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.1179923333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.353977</v>
+      </c>
+      <c r="O10">
+        <v>0.009965490978575419</v>
+      </c>
+      <c r="P10">
+        <v>0.009965490978575417</v>
+      </c>
+      <c r="Q10">
+        <v>0.003319832290666666</v>
+      </c>
+      <c r="R10">
+        <v>0.029878490616</v>
+      </c>
+      <c r="S10">
+        <v>0.0003859389954548054</v>
+      </c>
+      <c r="T10">
+        <v>0.0003859389954548054</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.028136</v>
+      </c>
+      <c r="H11">
+        <v>0.084408</v>
+      </c>
+      <c r="I11">
+        <v>0.03872754451180849</v>
+      </c>
+      <c r="J11">
+        <v>0.03872754451180849</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.352186666666667</v>
+      </c>
+      <c r="N11">
+        <v>10.05656</v>
+      </c>
+      <c r="O11">
+        <v>0.2831216659712423</v>
+      </c>
+      <c r="P11">
+        <v>0.2831216659712423</v>
+      </c>
+      <c r="Q11">
+        <v>0.09431712405333333</v>
+      </c>
+      <c r="R11">
+        <v>0.8488541164800001</v>
+      </c>
+      <c r="S11">
+        <v>0.01096460692115866</v>
+      </c>
+      <c r="T11">
+        <v>0.01096460692115866</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.073382</v>
+      </c>
+      <c r="H12">
+        <v>0.220146</v>
+      </c>
+      <c r="I12">
+        <v>0.1010059948594516</v>
+      </c>
+      <c r="J12">
+        <v>0.1010059948594516</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1882753333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.5648259999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.01590150887618359</v>
+      </c>
+      <c r="P12">
+        <v>0.01590150887618359</v>
+      </c>
+      <c r="Q12">
+        <v>0.01381602051066667</v>
+      </c>
+      <c r="R12">
+        <v>0.124344184596</v>
+      </c>
+      <c r="S12">
+        <v>0.001606147723805324</v>
+      </c>
+      <c r="T12">
+        <v>0.001606147723805324</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.073382</v>
+      </c>
+      <c r="H13">
+        <v>0.220146</v>
+      </c>
+      <c r="I13">
+        <v>0.1010059948594516</v>
+      </c>
+      <c r="J13">
+        <v>0.1010059948594516</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8.179402000000001</v>
+      </c>
+      <c r="N13">
+        <v>24.538206</v>
+      </c>
+      <c r="O13">
+        <v>0.6908224842953787</v>
+      </c>
+      <c r="P13">
+        <v>0.6908224842953786</v>
+      </c>
+      <c r="Q13">
+        <v>0.6002208775640001</v>
+      </c>
+      <c r="R13">
+        <v>5.401987898076</v>
+      </c>
+      <c r="S13">
+        <v>0.06977721229753263</v>
+      </c>
+      <c r="T13">
+        <v>0.06977721229753261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.073382</v>
+      </c>
+      <c r="H14">
+        <v>0.220146</v>
+      </c>
+      <c r="I14">
+        <v>0.1010059948594516</v>
+      </c>
+      <c r="J14">
+        <v>0.1010059948594516</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.002236</v>
+      </c>
+      <c r="N14">
+        <v>0.006708</v>
+      </c>
+      <c r="O14">
+        <v>0.0001888498786200344</v>
+      </c>
+      <c r="P14">
+        <v>0.0001888498786200344</v>
+      </c>
+      <c r="Q14">
+        <v>0.000164082152</v>
+      </c>
+      <c r="R14">
+        <v>0.001476739368</v>
+      </c>
+      <c r="S14">
+        <v>1.907496986910326E-05</v>
+      </c>
+      <c r="T14">
+        <v>1.907496986910326E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.073382</v>
+      </c>
+      <c r="H15">
+        <v>0.220146</v>
+      </c>
+      <c r="I15">
+        <v>0.1010059948594516</v>
+      </c>
+      <c r="J15">
+        <v>0.1010059948594516</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.1179923333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.353977</v>
+      </c>
+      <c r="O15">
+        <v>0.009965490978575419</v>
+      </c>
+      <c r="P15">
+        <v>0.009965490978575417</v>
+      </c>
+      <c r="Q15">
+        <v>0.008658513404666666</v>
+      </c>
+      <c r="R15">
+        <v>0.077926620642</v>
+      </c>
+      <c r="S15">
+        <v>0.0010065743305539</v>
+      </c>
+      <c r="T15">
+        <v>0.0010065743305539</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.073382</v>
+      </c>
+      <c r="H16">
+        <v>0.220146</v>
+      </c>
+      <c r="I16">
+        <v>0.1010059948594516</v>
+      </c>
+      <c r="J16">
+        <v>0.1010059948594516</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.352186666666667</v>
+      </c>
+      <c r="N16">
+        <v>10.05656</v>
+      </c>
+      <c r="O16">
+        <v>0.2831216659712423</v>
+      </c>
+      <c r="P16">
+        <v>0.2831216659712423</v>
+      </c>
+      <c r="Q16">
+        <v>0.2459901619733334</v>
+      </c>
+      <c r="R16">
+        <v>2.213911457760001</v>
+      </c>
+      <c r="S16">
+        <v>0.02859698553769068</v>
+      </c>
+      <c r="T16">
+        <v>0.02859698553769068</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.5618379999999999</v>
+      </c>
+      <c r="H17">
+        <v>1.685514</v>
+      </c>
+      <c r="I17">
+        <v>0.7733368692573733</v>
+      </c>
+      <c r="J17">
+        <v>0.7733368692573734</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1882753333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.5648259999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.01590150887618359</v>
+      </c>
+      <c r="P17">
+        <v>0.01590150887618359</v>
+      </c>
+      <c r="Q17">
+        <v>0.1057802367293333</v>
+      </c>
+      <c r="R17">
+        <v>0.9520221305639999</v>
+      </c>
+      <c r="S17">
+        <v>0.01229722309077615</v>
+      </c>
+      <c r="T17">
+        <v>0.01229722309077615</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.5618379999999999</v>
+      </c>
+      <c r="H18">
+        <v>1.685514</v>
+      </c>
+      <c r="I18">
+        <v>0.7733368692573733</v>
+      </c>
+      <c r="J18">
+        <v>0.7733368692573734</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>8.179402000000001</v>
+      </c>
+      <c r="N18">
+        <v>24.538206</v>
+      </c>
+      <c r="O18">
+        <v>0.6908224842953787</v>
+      </c>
+      <c r="P18">
+        <v>0.6908224842953786</v>
+      </c>
+      <c r="Q18">
+        <v>4.595498860876001</v>
+      </c>
+      <c r="R18">
+        <v>41.35948974788401</v>
+      </c>
+      <c r="S18">
+        <v>0.5342384972175891</v>
+      </c>
+      <c r="T18">
+        <v>0.5342384972175891</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.5618379999999999</v>
+      </c>
+      <c r="H19">
+        <v>1.685514</v>
+      </c>
+      <c r="I19">
+        <v>0.7733368692573733</v>
+      </c>
+      <c r="J19">
+        <v>0.7733368692573734</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.002236</v>
+      </c>
+      <c r="N19">
+        <v>0.006708</v>
+      </c>
+      <c r="O19">
+        <v>0.0001888498786200344</v>
+      </c>
+      <c r="P19">
+        <v>0.0001888498786200344</v>
+      </c>
+      <c r="Q19">
+        <v>0.001256269768</v>
+      </c>
+      <c r="R19">
+        <v>0.011306427912</v>
+      </c>
+      <c r="S19">
+        <v>0.0001460445738916524</v>
+      </c>
+      <c r="T19">
+        <v>0.0001460445738916524</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.5618379999999999</v>
+      </c>
+      <c r="H20">
+        <v>1.685514</v>
+      </c>
+      <c r="I20">
+        <v>0.7733368692573733</v>
+      </c>
+      <c r="J20">
+        <v>0.7733368692573734</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.1179923333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.353977</v>
+      </c>
+      <c r="O20">
+        <v>0.009965490978575419</v>
+      </c>
+      <c r="P20">
+        <v>0.009965490978575417</v>
+      </c>
+      <c r="Q20">
+        <v>0.06629257657533333</v>
+      </c>
+      <c r="R20">
+        <v>0.596633189178</v>
+      </c>
+      <c r="S20">
+        <v>0.007706681593984112</v>
+      </c>
+      <c r="T20">
+        <v>0.007706681593984112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.5618379999999999</v>
+      </c>
+      <c r="H21">
+        <v>1.685514</v>
+      </c>
+      <c r="I21">
+        <v>0.7733368692573733</v>
+      </c>
+      <c r="J21">
+        <v>0.7733368692573734</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.352186666666667</v>
+      </c>
+      <c r="N21">
+        <v>10.05656</v>
+      </c>
+      <c r="O21">
+        <v>0.2831216659712423</v>
+      </c>
+      <c r="P21">
+        <v>0.2831216659712423</v>
+      </c>
+      <c r="Q21">
+        <v>1.883385852426667</v>
+      </c>
+      <c r="R21">
+        <v>16.95047267184</v>
+      </c>
+      <c r="S21">
+        <v>0.2189484227811323</v>
+      </c>
+      <c r="T21">
+        <v>0.2189484227811323</v>
       </c>
     </row>
   </sheetData>
